--- a/Testdata/TC_34.xlsx
+++ b/Testdata/TC_34.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="My Series" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>OxwAAB+LCAAAAAAAAAOlWetvG8cR/1cO/NQCJe+OlG1JWF3AlxSipCiQVGXlS7G8W4lX3+2xt3uS+C0FEqRIUxRF4RTpE/2UokBdo02A1O7jfwks2f3Uf6Gzj3uRVCyqhmDdzvxmdnZ2dmZ2hd65CgPjgsTMj+hexa5ZFYNQN/J8er5XSfhZ1X5YecdB3SuXBEc4xiHhADZAirLdK+bvVWacz3dN8/LysnbZqEXxuVm3LNt8POiP3RkJcdWnjGPqkkom5b1dquKgthcOCMce5lhJ7lV6416tTXy3A7QBpvicxLVWwnxKGOtS7nOfMCEZE8xJuzP4nlqYU689rNnIXKHnyFbiB57ClZCKrnEwLZn4IXHqlr1dtbarDXtiPdqtW7sNu7Zjb72XCmZA1MeMj0l84buSMOY4nEtxa7thW4/qVgNmWwsCXbkDHDQMvBG58Bnx2iQI2EYeMfUGNl0Oq97MmRYyC7Ja0f1NOIjxfDbxeUA2M2M0aBkh1bbkShy0H8XEBf/dy6RDcjmMtVsn8z5wJzM/5osOXmys65iReDgXTtpM1EGdiPJmQGJ+PIe9Jh6EAjAcHicEmbcwc6GOz1z49mlCPOcMB6woVGKikyh+wubYJYdwjk2h45IGEfYg4LjPuO+yXMEKBx3F0RxUwuytKPD2Qa02cQ0jU92j4GMxbyuKnixrLzOR3Fa5wbCpIeYpfIWOxrPockiDxTiZMjf2p8TrtFL0Wh4SJ1JLtxPGoxCsyElI0QqUBfyDE7hMRh3i+iEOjgLwInMaoKVEQM2ER2c+b0dBEtLMnUtUdAIrmpCrbIXZGA1hd6lwekR7NMUrN69llQVG0WU25ypDOqFAbjI3DbJVxjK4A7R0+1Y5ckfEKvf9AApEcS8K1HJUjGeE8LUhoThI5MJ9UXKcZhAgMx8iCEuIbTDDsaBqVOXPxLJ25Q9Mm7FRl3q341ImOkzC4RTO74VckGMDb4mEYAlBK8D0CVBPfD47bKamr+EgteBb8as8BCd1HuCFJGdOKdJQj7pB4hGVAHr0TEaksE3t4a1stELqw5F2EKaLyWIOeZj5uxw+9ipQmXcZj6H2Vxw3SiiPFyJTIFND3ybDkimVE+DgzjJnMflhAi3HYj+hbjvy7j6bp7xzTH1+dwujJFbp7+4i0nsiESasQ0RKkUn+zvLuJmti8UbwkJIwor57d2+Dk4X13j0WwtJTVZAwb4mtDjnDSQBNDYfac56XlSUyarIny5giCR3HQZoZHNEyMugZXS+suVBVRV9Uc6NQEExo1U7GyCziRWvgki4972N6nkDxzQ7gMj3LS6JuTGJMmVhOVmuXUtR6EEoPtOoBnNWsgMwlCJqQcB7FOBiAT/x9vTW6h4DyPMB8pkeQ7gPipv41c9FMqmxUavPbYDJvqxWIQ6FTyRJRgsTGq8Y0x+Q0JJY4gNAN2jjwp7HKPGl1W8eDvcobpjRHicVt2Dyl7ofLCRSk75KF6FjzgabLaLVThopdkWyc8Whru/7AatSh2IsxkiseERwYXQh4TowevSCMhyC2a4wI8z348nGwa7xLpsSHQiFdpFP1xtJFObSf5kJpShPsLVPKACjB5z6k2lVgxskFnFOC42BRAKql9iMXcDc//vf1b56/evH5zcdP33z5wX//8atX//zZ9bMP4ePmr3+7/uSXapkKjCZ4GhBp0KS1vW01tiDOMhISzjVlt+glLpe001PZJGZjpC87ctDu9toH/ZZMJRkxFVdp1xT3qEWU5MOxWoScSG6pmUaCgjiTNDXpcYlbSOOOuNdckDK6yL9NUPni9cvPX7/8863S2mF5P2Lv7Dyo2vW3titwQ7RXcFm7Iu6L6jqQ3ka3qtaDar1eAC9h0Agu1dD9Z37qeQ5cQHesesOyszTuZYG8DrTM0pom+NxcklOktmohshAojlOmDPwJHJGMrY5CYaBD9MufvPnL0xJKe1dTylrAOFnqxWRmOpCqD0cTYzw8HrW7xqQ7FnGS8wo4pfwbwHr27DyVgorSBAffMQgVDylGBS4JFSM6Mwh2Z8YCTmLhHJaCbR1VTXRPlctWHsRRMlc7UhDIqWuQWTZZK7Em10ie9OdK0slZa+DK1uu/f7FOQC+kkzd92ZtAkYZKHEUq8PWp/exfr7766NWLFzfPf3791Y9KGvQ82VUZ4hxOU3GYhT2kPF1vlijoZCyd+cT6fqG+aKK4bBxFPuXMsR/Ke4YeIRC1hTb5G/VCKHlSsfQX0Jco6F3MuldcH2znEJllAtg5x1Bto/w6lhFUDs/9+p/f/u7m11/cfPr8zUd/uv74j9effPr65e/fPPuDOnU3T5/f/PSZzvLLhUDaIi55qv8z5JOBa4jTaIjabXz9/i8MGnEDWg4jkRnp6/c/KygThsrmJNcM3VxmSNmEFWhRWMgZBVMyG0pymYhqANqihDUyhC5i0dx380neqwpV4txJxrd6k2rCiBFBN/VtWEkZnAvfVU6LqJJ69Miq23XNVdaIJUwxK7j+IIim0GSkDHknX4KUpL5ZIMfK+Q76w1azn0OUEcPYgyu8JR4WxAdKW0pRUnosHaWhVqAAFxo/NwnEM8oKbJWVaS6kMVO/R5w1PZH+1l/nSwjUTuJYNURUv2+Pkzk0w+mr1e18+ZRX6H8PVa9a7Ijzca9T5sO4wIVCWGYLguTL1KRZKk31mHj6UO3soXBNPgRe6fkP3KGfsFWndQF9ZWyKvNON4yhem3xyTgobQCcNGcXMPZ5h5J6qrtvL9yolpAkv+1CXPr3CqEMCwjd73zVz6UF0cW9Z2PtNRXtsGHjamZtdPTK35AqKj9wiUP7fN24VbM04hsZKvIlt/Cid3llHcNXd0Bq1FCkoboAwu3413vdjxh+LTKC/FOU0o5yqDvWxo/+08ViNT536tiIAwCxqN0tmpkeXqz81REHfD/0Nr4VWer7LSsCX87lq4XqbRYooLYfkChrMggZIitMfQNlQjyabaFMBC7k0kxfve8w/n/FNDXs0xcQjU6vqTkm9uuVZ29UdQhpV24b/sVuvW9YD8TqolUPm8MnlhpOY6YblfwJ0/gecT9p+OxwAAA==</t>
+          <t>NB4AAB+LCAAAAAAAAAOlGdtuG8f1VxZ8aoFSe5FkS8JoA96kEKVEgaQqKy/FcncoTbWcZXdmJfEtBRKkSFMUReEU6RV9SlGgrtEmQGr38i+BJbtP/YWeueyNpGKtagjwzrnNmTPnOkTvXE9D4xLHjER0t2avWTUDUz8KCD3brSV8Urcf1d5xUefax+GRF3tTzIHYAC7Kdq4Z2a2dcz7bMc2rq6u1q/W1KD4zHcuyzScHvaF/jqdenVDGPerjWsYVvJ2r5qJWMD3A3As87inO3Vp32F1rYeK3AXbgUe8Mx2vNhBGKGetQTjjBTHDG2OO41T74njqY66w9WrORuQTPKZsJCQNFV6JUcE0H2+IRmWLXsRyrbm3VnY2Rbe84GzubG2v2tvNeypgRop7H+BDHl8SXgCH3pjPJbm05G7btbGxuIHMlEcjKDeCifhgM8CVhOGjhMGSVLGLqC2z4HE5dzZgWMgu8WtDDVdiPvdn5iPAQV2Xfi2Lsg6EetPchvurH2n6jWQ+wo3MS83nbm1eWdcxw3J8Ja1RjdVE7orwR4pgfz+BScQB3DgiXxwlG5h3InKlNmA/fhCY4cCdeyIpMJSQ6ieILNvN8fAgBawoZVzSMvAA8ixPGic9yAUsYdBRHMxAJuzejMNgDsVrFFYhMdJeCjcW+zSi6WJReRiLpBNId4FKnHk/Jl+BoeB5d9Wk4HyZj5sdkjIN2M6VeiUMi9DR3K2E8moIWOQgpWAEyh38Qaotg1MY+mXrhUQhWZO46SCkBUCPh0YTwVhQmU5qZcwGKTuBEI3ydnTBboz7cLhVGj2iXpvTKzCtRZYZBdJXtuYyQRiiAG8xPnWwZsUjcBlh6fcsYeSPilHskhEpQvIsCtOwVw3OM+UqXUBgkkt6eqC1uIwyRmS8RuCX4NqjhWlAe6vJvZFk78g+2zdCoQ4O76VIkOkym/THE76U8kGsDbgGE4AhhM/ToBUBPCD8/bKSqr8AgdeA76ZdxCCJ1FnpzCc6MUoShLvXDJMAqAXTpRHqk0E3d4Z1otATqQUi7yKPz0XwGCZeRHQ4fuzUowTuMx1Dka64fJZTHc5EpkKlJ38bDkjGVG3jhvXkmMf5hAr3FfC+hfisK7r9boKxzTAm/v4ZREqv0d38WaT2RCBPWxiKlyCR/b36/yplYXIl8SvE0osS/v7XByEL74AEHYWlUFTjMO3yrjSdeEkL3wqH2nOVlZQGMGuxikaYIQsdxmGYGV/SGDJpDP5iu+VBVRQO05kdTATChJzsZIrNIL1oDH3foWc+jZwkU3ywAF+FZXhJ1YxR7lInjZLV2IUWtJkJpQKsewF3OCshcIEEjPJ1FsRcegE3Inr4a3UNAeT7w+LleQboPsZ/a18xZM66yUqnObyOTeVudQASFTiULQEkkLl51oDlNDkPiiAfgumHLC8k4VpknrW6rcHBXecOU5ihxuIrNU2p+mEKgIH0Xz0Vrmi80XHqrnSKU74pk4w4HG1vOprXuQLEXayRPPMBeaHTA4Tk2uvQSMz4Fth1jgBkJ4It44Y7xLh5jAoVCmkin6srcRT60l+ZCqUoD9C1DygRQgs8IpNplwgyTM7in2IvDeYFQHbUX+UB3++N/3/zm+asXn99+/PTNlx/89x+/evXPn908+xA+bv/6t5tPfqmOqYjRyBuHWCo0am5tWeswquQgJIxrym4xSHwuYaensknM1khPNXLR6nRb+72mTCUZMGVXadcUA9M8SvLlUB1CbiSv1Ew9QZG4ozQ16XUJW0jjrhhgLnGZuoi/i1HZ4vXLz1+//POd3NpgeT9ib29v1m3nre2KY9n2El3WrojBUI0Deuy0N+rWZt1xCsQLNGgA0zN0/5mduoG7blvblrNu2VkaDzJHXkW0iNKSRt6ZucCnQC3VQmQuUFynSOn4IwiRDK1CobDQLvrlT9785WmJSltXQ8pSQDlZ6sVmZrqQog8HI2PYPx60OsaoMxR+kuMKdEr4NxDr3bN4KjkVpYkXfsfAVLyYGDUYEmpGNDGw558bc4jEQhyWnG0VVG30QJGLWu7HUTJTN1JgyKErKLNsspJjRa6ROGnPpaSTo1aQK11v/v7FKgZ9kHbe9LmDg6YxpZlfShgqYRSogNdR+9m/Xn310asXL26f//zmqx+VJOh9slEZ/ByiqbjM3B5Snq43CxB0MpTGvLC+X6gvGiiGjaOIUM5c+5GcM/QKAastpMn/UXcKJU8KlvYC+AIEveuxzjXXge0eIrMMAD1nHlTbKB/HMoDK4bld//Pb393++ovbT5+/+ehPNx//8eaTT1+//P2bZ39QUXf79PntT5/pLL9YCKQuYshT/Z8hnwx8Q0SjIWq38fX7vzBoxA1oOYxEZqSv3/+sIEwoKpuTXDJ0c5kiZRWWSIvMgs8oqJLpUOLLWFQD0BIlbD2j0EUsmhE/3+S9uhAl4k4ivtUd1ROGjQi6qW/DScrEOfN9+TSLKqlHjy3HdjRWaSOOMPZYwfT7YTSGJiNFyJl8gaTE9c0MOa3cb7/XbzZ6OYlSoh8HMMJb4mFBfKAuS5vK1L0KEMBCs+cnoXg6WSJbRqH0q5C6TP0GMWkEIuWtHuFLFKiVxLFqgqh+vB4mM2iA05equ/Hy+a7Q8x6q/rTYBefrbruMh3UBC8WvjBYAiZfpSKNUauoy8dyhWthDYZp8CbjSkx+YQ79Pq+7qEnrJ2BS5phPHUbwy4eSYlOwAumfIImZu8YzGFFuqTjvI7yoFpEku+1CDnj5h1MYh5pUfb1Pug+jywbxw91VZu6wfBtqY1caNzCy5gOILtnCUqso04hjaJvHiVfnJuUfoRbfa6V1n8jh4bG/725PxBGNnyw/Gwdbm5uMxfoQnNnR5SqiYPoUIMbmI2a3aJiCmzJ6P2AMYuitKUwaWjGIWBUvJgNSJPVujPRIz/kSkKP2lIKcZ5FS1zk+EfupDrk9dZ0sBgMAsbmaWtE7zC1c/dkRhj0xJxXnVSpNQWQi4wWymesuqFwo17xBfQ+dbkADZevwDqGfqNaeKNBVVkOQz/lTWMBlXFmemzEeAF471MO5OAH3Zw7nlLwck/D8UkJ3XQ0V0KSNn57xyoG5vr0NMOnVn4vv1DVjUoRqP64E32bYta7IebDri1VcLh+pA8FXFTURNIQzmiup85sJvv+7/ADKLFs80HgAA</t>
         </r>
       </text>
     </comment>
@@ -41,7 +41,7 @@
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy"/>
     <numFmt numFmtId="164" formatCode="yyyy"/>
-    <numFmt numFmtId="165" formatCode="###0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -518,7 +518,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>Function Information</t>
+          <t>Function Description</t>
         </is>
       </c>
       <c r="B11" s="2"/>
@@ -674,4 +674,37 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
+  <MetadataLink>
+    <MetadataLink>
+      <SheetId>My Series</SheetId>
+      <LinkPosRow>1</LinkPosRow>
+      <LinkPosCol>1</LinkPosCol>
+      <MetaDataSeries>
+        <MetadataSeries>
+          <InitRow>1</InitRow>
+          <InitCol>2</InitCol>
+          <EndRow>29</EndRow>
+          <EndCol>2</EndCol>
+          <Name>Real Estate Investment: Residential: Hebei</Name>
+          <DisplayName>Real Estate Investment: Residential: Hebei</DisplayName>
+          <SeriesId>310902301</SeriesId>
+          <Code>SR4825032</Code>
+          <Order>0</Order>
+        </MetadataSeries>
+      </MetaDataSeries>
+    </MetadataLink>
+  </MetadataLink>
+</MetadataExcelFile>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A89318BE-8935-42D7-9522-FC82344D1618}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Testdata/TC_34.xlsx
+++ b/Testdata/TC_34.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="My Series" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>NB4AAB+LCAAAAAAAAAOlGdtuG8f1VxZ8aoFSe5FkS8JoA96kEKVEgaQqKy/FcncoTbWcZXdmJfEtBRKkSFMUReEU6RV9SlGgrtEmQGr38i+BJbtP/YWeueyNpGKtagjwzrnNmTPnOkTvXE9D4xLHjER0t2avWTUDUz8KCD3brSV8Urcf1d5xUefax+GRF3tTzIHYAC7Kdq4Z2a2dcz7bMc2rq6u1q/W1KD4zHcuyzScHvaF/jqdenVDGPerjWsYVvJ2r5qJWMD3A3As87inO3Vp32F1rYeK3AXbgUe8Mx2vNhBGKGetQTjjBTHDG2OO41T74njqY66w9WrORuQTPKZsJCQNFV6JUcE0H2+IRmWLXsRyrbm3VnY2Rbe84GzubG2v2tvNeypgRop7H+BDHl8SXgCH3pjPJbm05G7btbGxuIHMlEcjKDeCifhgM8CVhOGjhMGSVLGLqC2z4HE5dzZgWMgu8WtDDVdiPvdn5iPAQV2Xfi2Lsg6EetPchvurH2n6jWQ+wo3MS83nbm1eWdcxw3J8Ja1RjdVE7orwR4pgfz+BScQB3DgiXxwlG5h3InKlNmA/fhCY4cCdeyIpMJSQ6ieILNvN8fAgBawoZVzSMvAA8ixPGic9yAUsYdBRHMxAJuzejMNgDsVrFFYhMdJeCjcW+zSi6WJReRiLpBNId4FKnHk/Jl+BoeB5d9Wk4HyZj5sdkjIN2M6VeiUMi9DR3K2E8moIWOQgpWAEyh38Qaotg1MY+mXrhUQhWZO46SCkBUCPh0YTwVhQmU5qZcwGKTuBEI3ydnTBboz7cLhVGj2iXpvTKzCtRZYZBdJXtuYyQRiiAG8xPnWwZsUjcBlh6fcsYeSPilHskhEpQvIsCtOwVw3OM+UqXUBgkkt6eqC1uIwyRmS8RuCX4NqjhWlAe6vJvZFk78g+2zdCoQ4O76VIkOkym/THE76U8kGsDbgGE4AhhM/ToBUBPCD8/bKSqr8AgdeA76ZdxCCJ1FnpzCc6MUoShLvXDJMAqAXTpRHqk0E3d4Z1otATqQUi7yKPz0XwGCZeRHQ4fuzUowTuMx1Dka64fJZTHc5EpkKlJ38bDkjGVG3jhvXkmMf5hAr3FfC+hfisK7r9boKxzTAm/v4ZREqv0d38WaT2RCBPWxiKlyCR/b36/yplYXIl8SvE0osS/v7XByEL74AEHYWlUFTjMO3yrjSdeEkL3wqH2nOVlZQGMGuxikaYIQsdxmGYGV/SGDJpDP5iu+VBVRQO05kdTATChJzsZIrNIL1oDH3foWc+jZwkU3ywAF+FZXhJ1YxR7lInjZLV2IUWtJkJpQKsewF3OCshcIEEjPJ1FsRcegE3Inr4a3UNAeT7w+LleQboPsZ/a18xZM66yUqnObyOTeVudQASFTiULQEkkLl51oDlNDkPiiAfgumHLC8k4VpknrW6rcHBXecOU5ihxuIrNU2p+mEKgIH0Xz0Vrmi80XHqrnSKU74pk4w4HG1vOprXuQLEXayRPPMBeaHTA4Tk2uvQSMz4Fth1jgBkJ4It44Y7xLh5jAoVCmkin6srcRT60l+ZCqUoD9C1DygRQgs8IpNplwgyTM7in2IvDeYFQHbUX+UB3++N/3/zm+asXn99+/PTNlx/89x+/evXPn908+xA+bv/6t5tPfqmOqYjRyBuHWCo0am5tWeswquQgJIxrym4xSHwuYaensknM1khPNXLR6nRb+72mTCUZMGVXadcUA9M8SvLlUB1CbiSv1Ew9QZG4ozQ16XUJW0jjrhhgLnGZuoi/i1HZ4vXLz1+//POd3NpgeT9ib29v1m3nre2KY9n2El3WrojBUI0Deuy0N+rWZt1xCsQLNGgA0zN0/5mduoG7blvblrNu2VkaDzJHXkW0iNKSRt6ZucCnQC3VQmQuUFynSOn4IwiRDK1CobDQLvrlT9785WmJSltXQ8pSQDlZ6sVmZrqQog8HI2PYPx60OsaoMxR+kuMKdEr4NxDr3bN4KjkVpYkXfsfAVLyYGDUYEmpGNDGw558bc4jEQhyWnG0VVG30QJGLWu7HUTJTN1JgyKErKLNsspJjRa6ROGnPpaSTo1aQK11v/v7FKgZ9kHbe9LmDg6YxpZlfShgqYRSogNdR+9m/Xn310asXL26f//zmqx+VJOh9slEZ/ByiqbjM3B5Snq43CxB0MpTGvLC+X6gvGiiGjaOIUM5c+5GcM/QKAastpMn/UXcKJU8KlvYC+AIEveuxzjXXge0eIrMMAD1nHlTbKB/HMoDK4bld//Pb393++ovbT5+/+ehPNx//8eaTT1+//P2bZ39QUXf79PntT5/pLL9YCKQuYshT/Z8hnwx8Q0SjIWq38fX7vzBoxA1oOYxEZqSv3/+sIEwoKpuTXDJ0c5kiZRWWSIvMgs8oqJLpUOLLWFQD0BIlbD2j0EUsmhE/3+S9uhAl4k4ivtUd1ROGjQi6qW/DScrEOfN9+TSLKqlHjy3HdjRWaSOOMPZYwfT7YTSGJiNFyJl8gaTE9c0MOa3cb7/XbzZ6OYlSoh8HMMJb4mFBfKAuS5vK1L0KEMBCs+cnoXg6WSJbRqH0q5C6TP0GMWkEIuWtHuFLFKiVxLFqgqh+vB4mM2iA05equ/Hy+a7Q8x6q/rTYBefrbruMh3UBC8WvjBYAiZfpSKNUauoy8dyhWthDYZp8CbjSkx+YQ79Pq+7qEnrJ2BS5phPHUbwy4eSYlOwAumfIImZu8YzGFFuqTjvI7yoFpEku+1CDnj5h1MYh5pUfb1Pug+jywbxw91VZu6wfBtqY1caNzCy5gOILtnCUqso04hjaJvHiVfnJuUfoRbfa6V1n8jh4bG/725PxBGNnyw/Gwdbm5uMxfoQnNnR5SqiYPoUIMbmI2a3aJiCmzJ6P2AMYuitKUwaWjGIWBUvJgNSJPVujPRIz/kSkKP2lIKcZ5FS1zk+EfupDrk9dZ0sBgMAsbmaWtE7zC1c/dkRhj0xJxXnVSpNQWQi4wWymesuqFwo17xBfQ+dbkADZevwDqGfqNaeKNBVVkOQz/lTWMBlXFmemzEeAF471MO5OAH3Zw7nlLwck/D8UkJ3XQ0V0KSNn57xyoG5vr0NMOnVn4vv1DVjUoRqP64E32bYta7IebDri1VcLh+pA8FXFTURNIQzmiup85sJvv+7/ADKLFs80HgAA</t>
+          <t>OxwAAB+LCAAAAAAAAAOlWetvG8cR/1cO/NQCJe+OlG1JWF3AlxSipCiQVGXlS7G8W4lX3+2xt3uS+C0FEqRIUxRF4RTpE/2UokBdo02A1O7jfwks2f3Uf6Gzj3uRVCyqhmDdzvxmdnZ2dmZ2hd65CgPjgsTMj+hexa5ZFYNQN/J8er5XSfhZ1X5YecdB3SuXBEc4xiHhADZAirLdK+bvVWacz3dN8/LysnbZqEXxuVm3LNt8POiP3RkJcdWnjGPqkkom5b1dquKgthcOCMce5lhJ7lV6416tTXy3A7QBpvicxLVWwnxKGOtS7nOfMCEZE8xJuzP4nlqYU689rNnIXKHnyFbiB57ClZCKrnEwLZn4IXHqlr1dtbarDXtiPdqtW7sNu7Zjb72XCmZA1MeMj0l84buSMOY4nEtxa7thW4/qVgNmWwsCXbkDHDQMvBG58Bnx2iQI2EYeMfUGNl0Oq97MmRYyC7Ja0f1NOIjxfDbxeUA2M2M0aBkh1bbkShy0H8XEBf/dy6RDcjmMtVsn8z5wJzM/5osOXmys65iReDgXTtpM1EGdiPJmQGJ+PIe9Jh6EAjAcHicEmbcwc6GOz1z49mlCPOcMB6woVGKikyh+wubYJYdwjk2h45IGEfYg4LjPuO+yXMEKBx3F0RxUwuytKPD2Qa02cQ0jU92j4GMxbyuKnixrLzOR3Fa5wbCpIeYpfIWOxrPockiDxTiZMjf2p8TrtFL0Wh4SJ1JLtxPGoxCsyElI0QqUBfyDE7hMRh3i+iEOjgLwInMaoKVEQM2ER2c+b0dBEtLMnUtUdAIrmpCrbIXZGA1hd6lwekR7NMUrN69llQVG0WU25ypDOqFAbjI3DbJVxjK4A7R0+1Y5ckfEKvf9AApEcS8K1HJUjGeE8LUhoThI5MJ9UXKcZhAgMx8iCEuIbTDDsaBqVOXPxLJ25Q9Mm7FRl3q341ImOkzC4RTO74VckGMDb4mEYAlBK8D0CVBPfD47bKamr+EgteBb8as8BCd1HuCFJGdOKdJQj7pB4hGVAHr0TEaksE3t4a1stELqw5F2EKaLyWIOeZj5uxw+9ipQmXcZj6H2Vxw3SiiPFyJTIFND3ybDkimVE+DgzjJnMflhAi3HYj+hbjvy7j6bp7xzTH1+dwujJFbp7+4i0nsiESasQ0RKkUn+zvLuJmti8UbwkJIwor57d2+Dk4X13j0WwtJTVZAwb4mtDjnDSQBNDYfac56XlSUyarIny5giCR3HQZoZHNEyMugZXS+suVBVRV9Uc6NQEExo1U7GyCziRWvgki4972N6nkDxzQ7gMj3LS6JuTGJMmVhOVmuXUtR6EEoPtOoBnNWsgMwlCJqQcB7FOBiAT/x9vTW6h4DyPMB8pkeQ7gPipv41c9FMqmxUavPbYDJvqxWIQ6FTyRJRgsTGq8Y0x+Q0JJY4gNAN2jjwp7HKPGl1W8eDvcobpjRHicVt2Dyl7ofLCRSk75KF6FjzgabLaLVThopdkWyc8Whru/7AatSh2IsxkiseERwYXQh4TowevSCMhyC2a4wI8z348nGwa7xLpsSHQiFdpFP1xtJFObSf5kJpShPsLVPKACjB5z6k2lVgxskFnFOC42BRAKql9iMXcDc//vf1b56/evH5zcdP33z5wX//8atX//zZ9bMP4ePmr3+7/uSXapkKjCZ4GhBp0KS1vW01tiDOMhISzjVlt+glLpe001PZJGZjpC87ctDu9toH/ZZMJRkxFVdp1xT3qEWU5MOxWoScSG6pmUaCgjiTNDXpcYlbSOOOuNdckDK6yL9NUPni9cvPX7/8863S2mF5P2Lv7Dyo2vW3titwQ7RXcFm7Iu6L6jqQ3ka3qtaDar1eAC9h0Agu1dD9Z37qeQ5cQHesesOyszTuZYG8DrTM0pom+NxcklOktmohshAojlOmDPwJHJGMrY5CYaBD9MufvPnL0xJKe1dTylrAOFnqxWRmOpCqD0cTYzw8HrW7xqQ7FnGS8wo4pfwbwHr27DyVgorSBAffMQgVDylGBS4JFSM6Mwh2Z8YCTmLhHJaCbR1VTXRPlctWHsRRMlc7UhDIqWuQWTZZK7Em10ie9OdK0slZa+DK1uu/f7FOQC+kkzd92ZtAkYZKHEUq8PWp/exfr7766NWLFzfPf3791Y9KGvQ82VUZ4hxOU3GYhT2kPF1vlijoZCyd+cT6fqG+aKK4bBxFPuXMsR/Ke4YeIRC1hTb5G/VCKHlSsfQX0Jco6F3MuldcH2znEJllAtg5x1Bto/w6lhFUDs/9+p/f/u7m11/cfPr8zUd/uv74j9effPr65e/fPPuDOnU3T5/f/PSZzvLLhUDaIi55qv8z5JOBa4jTaIjabXz9/i8MGnEDWg4jkRnp6/c/KygThsrmJNcM3VxmSNmEFWhRWMgZBVMyG0pymYhqANqihDUyhC5i0dx380neqwpV4txJxrd6k2rCiBFBN/VtWEkZnAvfVU6LqJJ69Miq23XNVdaIJUwxK7j+IIim0GSkDHknX4KUpL5ZIMfK+Q76w1azn0OUEcPYgyu8JR4WxAdKW0pRUnosHaWhVqAAFxo/NwnEM8oKbJWVaS6kMVO/R5w1PZH+1l/nSwjUTuJYNURUv2+Pkzk0w+mr1e18+ZRX6H8PVa9a7Ijzca9T5sO4wIVCWGYLguTL1KRZKk31mHj6UO3soXBNPgRe6fkP3KGfsFWndQF9ZWyKvNON4yhem3xyTgobQCcNGcXMPZ5h5J6qrtvL9yolpAkv+1CXPr3CqEMCwjd73zVz6UF0cW9Z2PtNRXtsGHjamZtdPTK35AqKj9wiUP7fN24VbM04hsZKvIlt/Cid3llHcNXd0Bq1FCkoboAwu3413vdjxh+LTKC/FOU0o5yqDvWxo/+08ViNT536tiIAwCxqN0tmpkeXqz81REHfD/0Nr4VWer7LSsCX87lq4XqbRYooLYfkChrMggZIitMfQNlQjyabaFMBC7k0kxfve8w/n/FNDXs0xcQjU6vqTkm9uuVZ29UdQhpV24b/sVuvW9YD8TqolUPm8MnlhpOY6YblfwJ0/gecT9p+OxwAAA==</t>
         </r>
       </text>
     </comment>
@@ -41,7 +41,7 @@
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy"/>
     <numFmt numFmtId="164" formatCode="yyyy"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="###0.000"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -518,7 +518,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>Function Description</t>
+          <t>Function Information</t>
         </is>
       </c>
       <c r="B11" s="2"/>
@@ -674,37 +674,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
-  <MetadataLink>
-    <MetadataLink>
-      <SheetId>My Series</SheetId>
-      <LinkPosRow>1</LinkPosRow>
-      <LinkPosCol>1</LinkPosCol>
-      <MetaDataSeries>
-        <MetadataSeries>
-          <InitRow>1</InitRow>
-          <InitCol>2</InitCol>
-          <EndRow>29</EndRow>
-          <EndCol>2</EndCol>
-          <Name>Real Estate Investment: Residential: Hebei</Name>
-          <DisplayName>Real Estate Investment: Residential: Hebei</DisplayName>
-          <SeriesId>310902301</SeriesId>
-          <Code>SR4825032</Code>
-          <Order>0</Order>
-        </MetadataSeries>
-      </MetaDataSeries>
-    </MetadataLink>
-  </MetadataLink>
-</MetadataExcelFile>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A89318BE-8935-42D7-9522-FC82344D1618}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>